--- a/public/template_xls/template_rak.xlsx
+++ b/public/template_xls/template_rak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F532EC92-DF42-4212-8BF2-73A72EDC4887}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41B62526-861E-4EFC-B18F-C9CA1E69EAFD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nama Rak</t>
   </si>
@@ -47,26 +47,36 @@
     <t>Sentul</t>
   </si>
   <si>
-    <t>Surabaya</t>
-  </si>
-  <si>
-    <t>HO</t>
-  </si>
-  <si>
-    <t>Rak 2</t>
-  </si>
-  <si>
-    <t>Rak 1</t>
-  </si>
-  <si>
-    <t>Rak 3</t>
+    <t>Rak 10</t>
+  </si>
+  <si>
+    <t>Gambar Rak</t>
+  </si>
+  <si>
+    <t>default_gambar_rak.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*kolom Gambar Rak, isi dengan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default_gambar_rak.jpg</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +94,27 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,9 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,6 +160,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,48 +463,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270B27F8-6628-4531-966A-4408389C0925}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_xls/template_rak.xlsx
+++ b/public/template_xls/template_rak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan20057\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{E4EF04D0-9D9C-46D9-B554-F86F215F04D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41B62526-861E-4EFC-B18F-C9CA1E69EAFD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DEE133-7C28-4735-B2F8-682E5C19045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Sentul</t>
   </si>
   <si>
-    <t>Rak 10</t>
-  </si>
-  <si>
     <t>Gambar Rak</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
       </rPr>
       <t>default_gambar_rak.jpg</t>
     </r>
+  </si>
+  <si>
+    <t>Rak 1</t>
   </si>
 </sst>
 </file>
@@ -160,10 +160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +462,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,25 +481,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{4FA375EC-E15E-458A-B166-59AF04511AAF}">
+      <formula1>"Sentul,Surabaya,HO"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{2AE656E1-5111-4FB9-8FD8-D65F466C3DFB}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/template_xls/template_rak.xlsx
+++ b/public/template_xls/template_rak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan20057\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DEE133-7C28-4735-B2F8-682E5C19045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{A8DEE133-7C28-4735-B2F8-682E5C19045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D311F913-3387-4179-8BA3-AE93AD8A141C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -53,8 +53,14 @@
     <t>default_gambar_rak.jpg</t>
   </si>
   <si>
+    <t>Rak 1</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">*kolom Gambar Rak, isi dengan </t>
+      <t xml:space="preserve">*Note :
+- Kolom isian tidak boleh kosong
+- Kolom Gambar Rak, isi dengan default_gambar_rak.jpg
+- Pastikan seluruh kolom yang kosong </t>
     </r>
     <r>
       <rPr>
@@ -65,11 +71,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>default_gambar_rak.jpg</t>
+      <t>dihapus</t>
     </r>
-  </si>
-  <si>
-    <t>Rak 1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, dengan cara blok kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -140,11 +153,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,39 +482,40 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/public/template_xls/template_rak.xlsx
+++ b/public/template_xls/template_rak.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bankbtn-my.sharepoint.com/personal/ivan20057_btn_co_id/Documents/Documents/IES Portal/template_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\template_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{A8DEE133-7C28-4735-B2F8-682E5C19045C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D311F913-3387-4179-8BA3-AE93AD8A141C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B735E-5A6F-4BDF-A596-8E78E2B2B090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -53,12 +53,13 @@
     <t>default_gambar_rak.jpg</t>
   </si>
   <si>
-    <t>Rak 1</t>
+    <t>Rak Contoh</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">*Note :
 - Kolom isian tidak boleh kosong
+- Lokasi diisi dengan cara memilih dropdown yang sudah tersedia
 - Kolom Gambar Rak, isi dengan default_gambar_rak.jpg
 - Pastikan seluruh kolom yang kosong </t>
     </r>
@@ -153,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -164,6 +165,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +486,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,11 +498,11 @@
     <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
